--- a/results/MI/mi_results.xlsx
+++ b/results/MI/mi_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\MI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13C421C-F275-447A-B7D1-2A99DAB05410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86F628-8BC0-4388-AB8A-2D608EF3DD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED270E90-83FA-44BB-B1D8-AD40873B7044}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ED270E90-83FA-44BB-B1D8-AD40873B7044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="345 pm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
   <si>
     <t>county</t>
   </si>
@@ -681,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598BCF42-1F44-4ABB-9066-953E30C4FFD9}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,4 +1619,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C4AAB-0146-4E86-AD2A-AB2DBD41DD1E}">
+  <dimension ref="A1:C84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4848</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3014</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41381</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10686</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5928</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2512</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>23473</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30919</v>
+      </c>
+      <c r="C10" s="3">
+        <v>21718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6600</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43518</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14066</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>16686</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9841</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10171</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10682</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10860</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>25095</v>
+      </c>
+      <c r="C20" s="3">
+        <v>21963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4955</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13206</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8469</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>31797</v>
+      </c>
+      <c r="C24" s="3">
+        <v>31297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>12135</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>97439</v>
+      </c>
+      <c r="C26" s="3">
+        <v>102322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9893</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4600</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <v>30502</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3">
+        <v>12102</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3">
+        <v>17037</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10380</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <v>11949</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>47640</v>
+      </c>
+      <c r="C34" s="3">
+        <v>94221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20655</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9760</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4216</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
+        <v>14815</v>
+      </c>
+      <c r="C38" s="3">
+        <v>14072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3">
+        <v>47381</v>
+      </c>
+      <c r="C39" s="3">
+        <v>32004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3">
+        <v>53686</v>
+      </c>
+      <c r="C40" s="3">
+        <v>66090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>7436</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3">
+        <v>153733</v>
+      </c>
+      <c r="C42" s="3">
+        <v>141504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>862</v>
+      </c>
+      <c r="C43" s="4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3946</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3">
+        <v>35480</v>
+      </c>
+      <c r="C45" s="3">
+        <v>16368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7915</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3">
+        <v>31539</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3">
+        <v>76980</v>
+      </c>
+      <c r="C48" s="3">
+        <v>48218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2109</v>
+      </c>
+      <c r="C49" s="4">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4258</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3">
+        <v>264535</v>
+      </c>
+      <c r="C51" s="3">
+        <v>225561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8321</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3">
+        <v>16288</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3">
+        <v>10207</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>13265</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3">
+        <v>8120</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3">
+        <v>27706</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6648</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3">
+        <v>52710</v>
+      </c>
+      <c r="C59" s="3">
+        <v>32975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3">
+        <v>21815</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4171</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3">
+        <v>46408</v>
+      </c>
+      <c r="C62" s="3">
+        <v>46389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>18864</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3">
+        <v>328313</v>
+      </c>
+      <c r="C64" s="3">
+        <v>438147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3">
+        <v>8892</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8253</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2358</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3">
+        <v>8928</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3466</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3">
+        <v>9779</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3">
+        <v>100511</v>
+      </c>
+      <c r="C71" s="3">
+        <v>64566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5343</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="3">
+        <v>9670</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3">
+        <v>50784</v>
+      </c>
+      <c r="C74" s="3">
+        <v>51068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="3">
+        <v>59184</v>
+      </c>
+      <c r="C75" s="3">
+        <v>31363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3">
+        <v>18128</v>
+      </c>
+      <c r="C76" s="3">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3">
+        <v>16194</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3090</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="3">
+        <v>23154</v>
+      </c>
+      <c r="C79" s="3">
+        <v>15371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3">
+        <v>20310</v>
+      </c>
+      <c r="C80" s="3">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3">
+        <v>21591</v>
+      </c>
+      <c r="C81" s="3">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="3">
+        <v>56241</v>
+      </c>
+      <c r="C82" s="3">
+        <v>157130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="3">
+        <v>244853</v>
+      </c>
+      <c r="C83" s="3">
+        <v>519809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="3">
+        <v>12102</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/MI/mi_results.xlsx
+++ b/results/MI/mi_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\MI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86F628-8BC0-4388-AB8A-2D608EF3DD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDB029-78BF-44FA-BE0F-A63AC8FB3D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ED270E90-83FA-44BB-B1D8-AD40873B7044}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{ED270E90-83FA-44BB-B1D8-AD40873B7044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="345 pm" sheetId="2" r:id="rId2"/>
+    <sheet name="11051100am" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>county</t>
   </si>
@@ -293,13 +294,31 @@
   </si>
   <si>
     <t>Wexford</t>
+  </si>
+  <si>
+    <t>pct_counted</t>
+  </si>
+  <si>
+    <t>99% in</t>
+  </si>
+  <si>
+    <t>0% in</t>
+  </si>
+  <si>
+    <t>95% in</t>
+  </si>
+  <si>
+    <t>98.9% in</t>
+  </si>
+  <si>
+    <t>95.7% in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +338,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -345,11 +370,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -365,6 +410,15 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C4AAB-0146-4E86-AD2A-AB2DBD41DD1E}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2563,4 +2617,1201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99924F14-2CD8-4450-8471-9433086B02A6}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4848</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2142</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3014</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2053</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41381</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24447</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10686</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5928</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2773</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2512</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1475</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>23473</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11804</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30919</v>
+      </c>
+      <c r="C10" s="3">
+        <v>21718</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6600</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5480</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43518</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37438</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14066</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6161</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28417</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>16686</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9122</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9841</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6939</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10171</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5435</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10682</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6651</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10860</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>25095</v>
+      </c>
+      <c r="C20" s="3">
+        <v>21963</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4955</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2612</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13206</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7605</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8469</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4569</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>31797</v>
+      </c>
+      <c r="C24" s="3">
+        <v>31297</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>12135</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9662</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>99199</v>
+      </c>
+      <c r="C26" s="3">
+        <v>120082</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9893</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4524</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4600</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3573</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <v>30502</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28682</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3">
+        <v>12102</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6693</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3">
+        <v>17037</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5883</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10380</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <v>11949</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5349</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>47640</v>
+      </c>
+      <c r="C34" s="3">
+        <v>94221</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20655</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10899</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9760</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5371</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4216</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2493</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
+        <v>14815</v>
+      </c>
+      <c r="C38" s="3">
+        <v>14072</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3">
+        <v>47381</v>
+      </c>
+      <c r="C39" s="3">
+        <v>32004</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3">
+        <v>56823</v>
+      </c>
+      <c r="C40" s="3">
+        <v>83674</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>7436</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3003</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3">
+        <v>165318</v>
+      </c>
+      <c r="C42" s="3">
+        <v>186753</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>862</v>
+      </c>
+      <c r="C43" s="4">
+        <v>672</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3946</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2288</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3">
+        <v>35480</v>
+      </c>
+      <c r="C45" s="3">
+        <v>16368</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7915</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8793</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3">
+        <v>31539</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20916</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3">
+        <v>76980</v>
+      </c>
+      <c r="C48" s="3">
+        <v>48218</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2109</v>
+      </c>
+      <c r="C49" s="4">
+        <v>842</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4258</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2589</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3">
+        <v>264535</v>
+      </c>
+      <c r="C51" s="3">
+        <v>225561</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8321</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6107</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3">
+        <v>16288</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20465</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3">
+        <v>10207</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6802</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>13265</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7373</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3">
+        <v>8120</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4314</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3">
+        <v>27706</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20513</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6648</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1967</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3">
+        <v>52710</v>
+      </c>
+      <c r="C59" s="3">
+        <v>32975</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3">
+        <v>21815</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9703</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4171</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1628</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3">
+        <v>46408</v>
+      </c>
+      <c r="C62" s="3">
+        <v>46389</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>18864</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7874</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3">
+        <v>328313</v>
+      </c>
+      <c r="C64" s="3">
+        <v>438147</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3">
+        <v>8892</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4944</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8253</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3475</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2358</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1391</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3">
+        <v>8928</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3214</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3466</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1342</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3">
+        <v>9779</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4743</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3">
+        <v>100511</v>
+      </c>
+      <c r="C71" s="3">
+        <v>64566</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5343</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2912</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="3">
+        <v>9670</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5166</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3">
+        <v>50784</v>
+      </c>
+      <c r="C74" s="3">
+        <v>51068</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="3">
+        <v>59184</v>
+      </c>
+      <c r="C75" s="3">
+        <v>31363</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3">
+        <v>18128</v>
+      </c>
+      <c r="C76" s="3">
+        <v>9262</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3">
+        <v>16194</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5966</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3090</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1589</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="3">
+        <v>23154</v>
+      </c>
+      <c r="C79" s="3">
+        <v>15371</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3">
+        <v>20310</v>
+      </c>
+      <c r="C80" s="3">
+        <v>8713</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3">
+        <v>21591</v>
+      </c>
+      <c r="C81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="3">
+        <v>56241</v>
+      </c>
+      <c r="C82" s="3">
+        <v>157130</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="3">
+        <v>264149</v>
+      </c>
+      <c r="C83" s="3">
+        <v>587074</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="3">
+        <v>12102</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5838</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>